--- a/stm32f103r8c6_pinoptions.xlsx
+++ b/stm32f103r8c6_pinoptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Study\Final_Design\Circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D72819B-29D3-4954-92B5-0FA410815359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3090B8D-7592-4A25-B1A1-7FECE4EEA772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{91254CA1-1717-4017-AFB3-27F831E17EE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
   <si>
     <t xml:space="preserve"> PA0-WKUP/USART2_CTS/ADC_IN0/TIM2_CH1_ETR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,16 @@
   </si>
   <si>
     <t>90 Degrees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1和ETR功能二选一 （ETR外部触发输入，与PWM无关；Tx为普通外部输入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMA_CH1 TIM_CH1N两个通道互补输出，设置这两个通道输出的时候，要是开启了互补输出，
+这两个引脚的输出电平始终相反，也就是一个引脚输出低电平，另一个引脚自动输出高电平，
+反之亦然。这样的输出方式一般用于电机驱动控制。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,16 +430,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,13 +487,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +527,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="检查单元格" xfId="3" builtinId="23"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,23 +874,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC60F3E-6B96-4F30-8350-2CEAAF3D2F38}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:H49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.21875" style="2" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="2"/>
     <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="86.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -809,7 +917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -835,7 +943,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -861,7 +969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -887,7 +995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -913,7 +1021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -939,7 +1047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -965,7 +1073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -991,7 +1099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1017,7 +1125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1043,111 +1151,114 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
         <v>600</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I11" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>500</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>400</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7">
         <v>400</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1173,7 +1284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1199,111 +1310,111 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7">
         <v>700</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7">
         <v>800</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7">
         <v>900</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7">
         <v>1000</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1329,7 +1440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1355,7 +1466,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1381,7 +1492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1407,7 +1518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1433,241 +1544,244 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="D26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G26" s="9">
         <v>400</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="D27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G27" s="9">
         <v>500</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="I27" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G28" s="9">
         <v>600</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G29" s="9">
         <v>700</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="D30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G30" s="7">
         <v>800</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G31" s="7">
         <v>900</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="D32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="7">
         <v>1000</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="D33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G33" s="7">
         <v>1100</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="D34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1800</v>
+      </c>
+      <c r="G34" s="11">
         <v>1200</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1875,55 +1989,55 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="7">
         <v>1000</v>
       </c>
-      <c r="G43" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" s="7">
+        <v>1800</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="D44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="7">
         <v>900</v>
       </c>
-      <c r="G44" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" s="7">
+        <v>1800</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1953,55 +2067,55 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="D46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="7">
         <v>700</v>
       </c>
-      <c r="G46" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" s="7">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="D47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="7">
         <v>600</v>
       </c>
-      <c r="G47" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" s="7">
+        <v>1800</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>107</v>
       </c>
     </row>
